--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_pseudoinverse_kernel_sigma_0.1.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_pseudoinverse_kernel_sigma_0.1.xlsx
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.7759842213168</v>
+        <v>93.89380530973452</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1801232449142844</v>
+        <v>0.1583686284783956</v>
       </c>
       <c r="D2" t="n">
-        <v>0.937759842213168</v>
+        <v>0.9389380530973451</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9365199956771703</v>
+        <v>0.9376062991343981</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.53687315634218</v>
+        <v>93.48151800621113</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2299816710315023</v>
+        <v>0.1792654852745898</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9253687315634218</v>
+        <v>0.9348151800621112</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9218168013014945</v>
+        <v>0.9299427192256011</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +509,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.86725663716814</v>
+        <v>95.10324483775813</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1574032618450777</v>
+        <v>0.1282301312778448</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9486725663716815</v>
+        <v>0.9510324483775812</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9457672344331407</v>
+        <v>0.950663988578048</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.02949852507375</v>
+        <v>88.28908554572271</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2985399576551572</v>
+        <v>0.3156740634983483</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9002949852507374</v>
+        <v>0.8828908554572271</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8929577470734836</v>
+        <v>0.8790092361069254</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.17923165425307</v>
+        <v>78.29185373575896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6907849848998012</v>
+        <v>0.6692751933219067</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7917923165425307</v>
+        <v>0.7829185373575897</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7722697989740188</v>
+        <v>0.7647513290703489</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.154940786685</v>
+        <v>86.75827645567868</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2186601334329074</v>
+        <v>0.4871514189600323</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9115494078668501</v>
+        <v>0.8675827645567867</v>
       </c>
       <c r="E7" t="n">
-        <v>0.909920451726595</v>
+        <v>0.85040848572085</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.81710914454277</v>
+        <v>88.55457227138643</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3787313043411511</v>
+        <v>0.3107478610841402</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8781710914454276</v>
+        <v>0.8855457227138643</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8656813557442435</v>
+        <v>0.885355660127965</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.15044247787611</v>
+        <v>92.00589970501474</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2571385258972441</v>
+        <v>0.2190165757700621</v>
       </c>
       <c r="D9" t="n">
-        <v>0.911504424778761</v>
+        <v>0.9200589970501476</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9088183273426169</v>
+        <v>0.9159024060777972</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.97640117994101</v>
+        <v>90.85563023901591</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2263940965708267</v>
+        <v>0.245132971641821</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9197640117994099</v>
+        <v>0.9085563023901591</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9142145546582618</v>
+        <v>0.9027576626432851</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.11816711217224</v>
+        <v>89.14454277286136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3024769105327626</v>
+        <v>0.3085062577882733</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9011816711217225</v>
+        <v>0.8914454277286137</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8953273105074155</v>
+        <v>0.8856595368972766</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.09491431586778</v>
+        <v>83.03834808259587</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5728612550037724</v>
+        <v>0.5891657705023439</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8209491431586778</v>
+        <v>0.8303834808259587</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8153638261030528</v>
+        <v>0.8276343515365874</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.65781710914453</v>
+        <v>77.96477478178878</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5509198992241484</v>
+        <v>0.7816973711228152</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8365781710914455</v>
+        <v>0.7796477478178877</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8255199027723572</v>
+        <v>0.7725869408678301</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +699,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.66822377356206</v>
+        <v>97.22713864306785</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08064350767114473</v>
+        <v>0.07258092709956449</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9666822377356205</v>
+        <v>0.9722713864306785</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9667654223692324</v>
+        <v>0.9722955638570084</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>97.37463126843657</v>
+        <v>95.69321533923303</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06036551080292156</v>
+        <v>0.1103025191926273</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9737463126843657</v>
+        <v>0.9569321533923304</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9737286343114162</v>
+        <v>0.9575464657549221</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.44837758112094</v>
+        <v>97.31563421828909</v>
       </c>
       <c r="C16" t="n">
-        <v>0.214261388530279</v>
+        <v>0.0676254220183182</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9244837758112094</v>
+        <v>0.9731563421828909</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9165718951068111</v>
+        <v>0.9727532239252614</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90.32332459623353</v>
+        <v>89.84116932960781</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2946190434901987</v>
+        <v>0.3095160398020723</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9032332459623353</v>
+        <v>0.8984116932960781</v>
       </c>
       <c r="E17" t="n">
-        <v>0.897416217206754</v>
+        <v>0.8936582579682736</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.78188392633155</v>
+        <v>89.38053097345133</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4045007254268664</v>
+        <v>0.331439342192607</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8578188392633154</v>
+        <v>0.8938053097345133</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8507424227187504</v>
+        <v>0.8866354000598158</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.29828112699937</v>
+        <v>87.98017283886539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.28110241607028</v>
+        <v>0.2753888443342779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9129828112699936</v>
+        <v>0.8798017283886539</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9051347775475943</v>
+        <v>0.8774758016658044</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.24483775811208</v>
+        <v>93.68731563421829</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2135908889613347</v>
+        <v>0.1701262056250319</v>
       </c>
       <c r="D4" t="n">
-        <v>0.932448377581121</v>
+        <v>0.9368731563421828</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9258916631972463</v>
+        <v>0.9366687451771535</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +878,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.41297935103245</v>
+        <v>86.01769911504425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3056416194842314</v>
+        <v>0.3737348062025073</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9041297935103245</v>
+        <v>0.8601769911504424</v>
       </c>
       <c r="E5" t="n">
-        <v>0.897916291103282</v>
+        <v>0.8520386044316428</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.61927006288981</v>
+        <v>72.25313367762696</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6294335291410487</v>
+        <v>0.9185697969417864</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7761927006288982</v>
+        <v>0.7225313367762697</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7584373122982132</v>
+        <v>0.6982298460528482</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.76932326404207</v>
+        <v>76.86390020674919</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4558687110741933</v>
+        <v>0.608661436693122</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8376932326404207</v>
+        <v>0.7686390020674919</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8368435700786225</v>
+        <v>0.7658244775053534</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +935,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.23419752766027</v>
+        <v>86.34218289085547</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4411145403651365</v>
+        <v>0.4047045054797006</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8323419752766028</v>
+        <v>0.8634218289085546</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8302960262199669</v>
+        <v>0.8577642349269023</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.38972655472799</v>
+        <v>88.43657817109144</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2309972762591011</v>
+        <v>0.3391538995995992</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9238972655472798</v>
+        <v>0.8843657817109145</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9205435156008402</v>
+        <v>0.8758453936573207</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +973,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.18011401482713</v>
+        <v>90.8259587020649</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2621157625399064</v>
+        <v>0.221129435725743</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9118011401482711</v>
+        <v>0.9082595870206489</v>
       </c>
       <c r="E10" t="n">
-        <v>0.908688995536466</v>
+        <v>0.9056608001230657</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +992,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.47284146056627</v>
+        <v>90.32465678768848</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2902112577396717</v>
+        <v>0.286978393814934</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9047284146056628</v>
+        <v>0.9032465678768847</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9018447964946719</v>
+        <v>0.8984058935250203</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.17109144542772</v>
+        <v>82.06489675516225</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6259187973647689</v>
+        <v>0.5812441222369671</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7817109144542773</v>
+        <v>0.8206489675516224</v>
       </c>
       <c r="E12" t="n">
-        <v>0.768451240740103</v>
+        <v>0.8236241482300084</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.33055649270322</v>
+        <v>80.3834808259587</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6002922358068947</v>
+        <v>0.6151147230809632</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8233055649270323</v>
+        <v>0.8038348082595871</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8126982304171078</v>
+        <v>0.7905507099230261</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1049,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.22713864306785</v>
+        <v>94.98525073746313</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07990923105826368</v>
+        <v>0.1375664993828498</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9722713864306785</v>
+        <v>0.9498525073746313</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9724435879864295</v>
+        <v>0.9499684696117683</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1068,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.01474926253687</v>
+        <v>92.06489675516224</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1201172889189403</v>
+        <v>0.1996520190206714</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9501474926253687</v>
+        <v>0.9206489675516224</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9498044684285063</v>
+        <v>0.9196037574553924</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1087,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.5693215339233</v>
+        <v>96.01769911504425</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1585767294615119</v>
+        <v>0.1202875121099358</v>
       </c>
       <c r="D16" t="n">
-        <v>0.935693215339233</v>
+        <v>0.9601769911504425</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9323177172872683</v>
+        <v>0.9593837092712194</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1106,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.38108749498987</v>
+        <v>87.17522354576307</v>
       </c>
       <c r="C17" t="n">
-        <v>0.33995940064481</v>
+        <v>0.3722501028293799</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8838108749498989</v>
+        <v>0.8717522354576309</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8781369743770048</v>
+        <v>0.8665119994410896</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1171,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88.99981833752886</v>
+        <v>86.34218289085545</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3025537525691713</v>
+        <v>0.3581362936859174</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8899981833752888</v>
+        <v>0.8634218289085546</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8855837997331293</v>
+        <v>0.8603754544452386</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1190,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.77474718639435</v>
+        <v>78.07126359224561</v>
       </c>
       <c r="C3" t="n">
-        <v>0.251666615917937</v>
+        <v>0.5175478960891875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9077474718639434</v>
+        <v>0.7807126359224561</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9057774774928596</v>
+        <v>0.7743365420431738</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.24170624313359</v>
+        <v>86.75550826564243</v>
       </c>
       <c r="C4" t="n">
-        <v>0.244461400876753</v>
+        <v>0.3642472228889043</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9124170624313359</v>
+        <v>0.8675550826564244</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8996034496783807</v>
+        <v>0.867769128572084</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1228,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.4424778761062</v>
+        <v>77.70465142432028</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2597394318404743</v>
+        <v>0.6326678041989605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9044247787610619</v>
+        <v>0.7770465142432028</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9017917200315402</v>
+        <v>0.7681129730914134</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1247,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.0660386335522</v>
+        <v>69.46323065078417</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7473200761635477</v>
+        <v>1.029139427344004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7406603863355219</v>
+        <v>0.6946323065078418</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7366551936204941</v>
+        <v>0.6813345961147442</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1266,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.70461682194482</v>
+        <v>79.22568534329882</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4262856259185355</v>
+        <v>0.593854437644283</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8370461682194483</v>
+        <v>0.7922568534329881</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8386983453213965</v>
+        <v>0.7867796762203738</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1285,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.18860889800085</v>
+        <v>80.50268600939454</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5544000274656962</v>
+        <v>0.7267484131890039</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8318860889800085</v>
+        <v>0.8050268600939454</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8268928408977627</v>
+        <v>0.7836402763923702</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1304,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.60517824548656</v>
+        <v>87.96719694807049</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3238457101421469</v>
+        <v>0.3172525765257888</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8860517824548655</v>
+        <v>0.8796719694807049</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8820742782756448</v>
+        <v>0.8778228957028003</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.07829652505646</v>
+        <v>85.14364311109958</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7598621074149075</v>
+        <v>0.3618205655909454</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8107829652505645</v>
+        <v>0.8514364311109958</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8027322931791575</v>
+        <v>0.8479664026581029</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.82470436595472</v>
+        <v>83.33385236896513</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4313436169672059</v>
+        <v>0.3936702951740396</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8582470436595472</v>
+        <v>0.8333385236896513</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8520137849559152</v>
+        <v>0.8364295607993342</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>76.40360210728467</v>
+        <v>68.27783977370046</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7068332308127234</v>
+        <v>1.03586733531071</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7640360210728467</v>
+        <v>0.6827783977370047</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7481933267970493</v>
+        <v>0.6814128715361142</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.89824306438638</v>
+        <v>76.13456863813701</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9075675369550785</v>
+        <v>0.7131055612349882</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7689824306438637</v>
+        <v>0.7613456863813701</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7504929006904946</v>
+        <v>0.7628451357093327</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1399,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.13864306784662</v>
+        <v>91.59482348463222</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0855578419130931</v>
+        <v>0.2226767271175049</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9713864306784661</v>
+        <v>0.9159482348463222</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9715298410045341</v>
+        <v>0.9154905437044079</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1418,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.27728613569322</v>
+        <v>90.7669616519174</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1389338818727613</v>
+        <v>0.2248189439416213</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9427728613569322</v>
+        <v>0.9076696165191741</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9427262397230478</v>
+        <v>0.9094358098780546</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.88512876408966</v>
+        <v>96.78466076696165</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2893163882700075</v>
+        <v>0.1318765568120095</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9088512876408966</v>
+        <v>0.9678466076696166</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8986106753186034</v>
+        <v>0.9676475753970001</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>86.23527308483061</v>
+        <v>82.53791699466836</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4286458163400026</v>
+        <v>0.5082286704498579</v>
       </c>
       <c r="D17" t="n">
-        <v>0.862352730848306</v>
+        <v>0.8253791699466836</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8562250777813339</v>
+        <v>0.821426629484303</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1521,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.43875812074499</v>
+        <v>66.16787342451059</v>
       </c>
       <c r="C2" t="n">
-        <v>0.495446664498498</v>
+        <v>0.8221014232685169</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8043875812074498</v>
+        <v>0.6616787342451059</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8037958779449543</v>
+        <v>0.6526527841597758</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.40073876071592</v>
+        <v>61.07535532314294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6316193748197596</v>
+        <v>1.016491103203346</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7540073876071592</v>
+        <v>0.6107535532314293</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7448245477368646</v>
+        <v>0.5810865433531822</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1559,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.17765724616996</v>
+        <v>74.47054040259863</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3317002223222517</v>
+        <v>0.6958435473342737</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8717765724616996</v>
+        <v>0.7447054040259864</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8689190613025511</v>
+        <v>0.741082206744722</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.08548516855681</v>
+        <v>64.60358653621572</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7315971061587334</v>
+        <v>0.9302419861157736</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7208548516855682</v>
+        <v>0.6460358653621572</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7113938914685939</v>
+        <v>0.6325703143529074</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.45363714218981</v>
+        <v>59.32750283306949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9788143228118619</v>
+        <v>1.083007550084343</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6045363714218981</v>
+        <v>0.5932750283306949</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5853855186372848</v>
+        <v>0.5656371587966337</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.83593283678924</v>
+        <v>63.75453074853588</v>
       </c>
       <c r="C7" t="n">
-        <v>0.639772251000007</v>
+        <v>0.9292352030674615</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7383593283678924</v>
+        <v>0.6375453074853589</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7317494139137414</v>
+        <v>0.6253582315865748</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1635,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.52188167717713</v>
+        <v>68.30024481180632</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5070566246906916</v>
+        <v>0.7686668862899144</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7952188167717714</v>
+        <v>0.6830024481180633</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7954006740516688</v>
+        <v>0.6668181150688273</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.8201628041765</v>
+        <v>76.39036669867387</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4969475310451041</v>
+        <v>0.606862269093593</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8082016280417651</v>
+        <v>0.7639036669867386</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8063546929017005</v>
+        <v>0.7541204713444204</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.72126056453776</v>
+        <v>73.33151670862205</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6804820533841849</v>
+        <v>0.6616370866075159</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7772126056453775</v>
+        <v>0.7333151670862205</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7638281567031557</v>
+        <v>0.7244195835015108</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1692,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76.52099066600923</v>
+        <v>63.34258946876703</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7096402621517579</v>
+        <v>0.8237096523245176</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7652099066600921</v>
+        <v>0.6334258946876703</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7512267775827107</v>
+        <v>0.6287793583506072</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.21489805275132</v>
+        <v>56.24797792368446</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9956479991475741</v>
+        <v>1.235350591937701</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6221489805275132</v>
+        <v>0.5624797792368446</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6077684015645791</v>
+        <v>0.5475042923861489</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1730,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.79134767601795</v>
+        <v>67.16649798008633</v>
       </c>
       <c r="C13" t="n">
-        <v>1.013443550467491</v>
+        <v>0.8108494379868111</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6979134767601796</v>
+        <v>0.6716649798008634</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6787742643988912</v>
+        <v>0.6638821708184645</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1749,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.63091376222977</v>
+        <v>80.01072673639047</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2282291533891112</v>
+        <v>0.5273898025353749</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9363091376222977</v>
+        <v>0.8001072673639046</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9358862735345694</v>
+        <v>0.7983187034279358</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1768,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>88.57204647099023</v>
+        <v>78.90535385254198</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3001640626539787</v>
+        <v>0.5237248359163156</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8857204647099023</v>
+        <v>0.7890535385254198</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8843643111710795</v>
+        <v>0.7875480707438353</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1787,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.85127899030269</v>
+        <v>92.24690525004542</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3592749620163886</v>
+        <v>0.1890111692802748</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8785127899030268</v>
+        <v>0.9224690525004542</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8653598946154751</v>
+        <v>0.9210870304683848</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1806,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>77.73579932929061</v>
+        <v>69.6894379132461</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6066557427038263</v>
+        <v>0.7749415030030488</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7773579932929062</v>
+        <v>0.6968943791324608</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7690021171685213</v>
+        <v>0.6860576690069288</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1871,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.83006773414995</v>
+        <v>48.05292433325548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6499770543227592</v>
+        <v>1.560928655912479</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7583006773414995</v>
+        <v>0.4805292433325548</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7480293740163726</v>
+        <v>0.4119433819102259</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1890,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.32856685611468</v>
+        <v>50.34792688518067</v>
       </c>
       <c r="C3" t="n">
-        <v>0.747923468840842</v>
+        <v>1.144341084609429</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7232856685611467</v>
+        <v>0.5034792688518067</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6986030421250284</v>
+        <v>0.4757343703992734</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1909,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.54984904713709</v>
+        <v>54.19398091678994</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4523084133863449</v>
+        <v>1.270784189676245</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8254984904713709</v>
+        <v>0.5419398091678993</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8250265980265974</v>
+        <v>0.5048242179558501</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1928,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.01308834851513</v>
+        <v>56.85568214257908</v>
       </c>
       <c r="C5" t="n">
-        <v>1.121183037944138</v>
+        <v>1.123549367984136</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6301308834851513</v>
+        <v>0.5685568214257909</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6063246009977744</v>
+        <v>0.5576397182098406</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1947,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.46955423489823</v>
+        <v>53.17096168651979</v>
       </c>
       <c r="C6" t="n">
-        <v>1.692737715691328</v>
+        <v>1.359363404537241</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5046955423489823</v>
+        <v>0.5317096168651978</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4759215724607325</v>
+        <v>0.4884245438522569</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1966,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.77882161610395</v>
+        <v>60.46211472417582</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6889122648785511</v>
+        <v>1.153182129065196</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7177882161610395</v>
+        <v>0.6046211472417581</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7125884279404497</v>
+        <v>0.5868761736132522</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1985,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.01652263427884</v>
+        <v>45.92937655170027</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9710050171396384</v>
+        <v>1.765944255888462</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7001652263427884</v>
+        <v>0.4592937655170027</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6667762932859593</v>
+        <v>0.397709928649373</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2004,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.55170027422382</v>
+        <v>46.88076886478257</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7105757684165535</v>
+        <v>1.794982148210208</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7655170027422382</v>
+        <v>0.4688076886478257</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7537035617493735</v>
+        <v>0.4085353630852068</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2023,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.71118262268705</v>
+        <v>50.02794141817836</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7283082400759061</v>
+        <v>1.300331563254197</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7271118262268705</v>
+        <v>0.5002794141817836</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7139662392879962</v>
+        <v>0.4564813251897584</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2042,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.76803432555644</v>
+        <v>52.00140139620585</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9006004850069681</v>
+        <v>1.172551911324263</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6476803432555645</v>
+        <v>0.5200140139620585</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6259835594290886</v>
+        <v>0.484804490098446</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2061,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55.89468767030856</v>
+        <v>49.86989506829644</v>
       </c>
       <c r="C12" t="n">
-        <v>1.331172701281806</v>
+        <v>1.170385177930196</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5589468767030856</v>
+        <v>0.4986989506829643</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5306901071364636</v>
+        <v>0.4717962839877006</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.64014394588188</v>
+        <v>50.66964247095563</v>
       </c>
       <c r="C13" t="n">
-        <v>1.211241928984722</v>
+        <v>1.354894431928793</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6064014394588189</v>
+        <v>0.5066964247095563</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5826644813852738</v>
+        <v>0.4701751548671889</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2099,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.41017655862075</v>
+        <v>51.87224802982725</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4196899547241628</v>
+        <v>1.413565084586541</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8641017655862075</v>
+        <v>0.5187224802982724</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8637820470188213</v>
+        <v>0.4752552699958759</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2118,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.83925466483274</v>
+        <v>69.68477235962249</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7184034921966183</v>
+        <v>0.8284640779718757</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7783925466483275</v>
+        <v>0.6968477235962249</v>
       </c>
       <c r="E15" t="n">
-        <v>0.761913395801217</v>
+        <v>0.6764219653658186</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2137,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.61563681346725</v>
+        <v>74.80315573664132</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3612313617115433</v>
+        <v>0.7673472135793418</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8761563681346726</v>
+        <v>0.7480315573664132</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8709375274044708</v>
+        <v>0.7450155265366234</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2156,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>71.22781915645174</v>
+        <v>54.32151950564739</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8470180603067921</v>
+        <v>1.278707646430574</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7122781915645177</v>
+        <v>0.543215195056474</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6957940552043748</v>
+        <v>0.5074425142477794</v>
       </c>
     </row>
   </sheetData>
